--- a/Output/Варочные центры.xlsx
+++ b/Output/Варочные центры.xlsx
@@ -867,8 +867,12 @@
       <c r="F4" t="s">
         <v>34</v>
       </c>
-      <c r="G4" t="s"/>
-      <c r="H4" t="s"/>
+      <c r="G4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H4" t="s">
+        <v>36</v>
+      </c>
       <c r="I4" t="s"/>
       <c r="J4" t="s"/>
       <c r="K4" t="s"/>
@@ -911,8 +915,12 @@
       <c r="F5" t="s">
         <v>34</v>
       </c>
-      <c r="G5" t="s"/>
-      <c r="H5" t="s"/>
+      <c r="G5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" t="s">
+        <v>36</v>
+      </c>
       <c r="I5" t="s"/>
       <c r="J5" t="s"/>
       <c r="K5" t="s"/>
@@ -955,8 +963,12 @@
       <c r="F6" t="s">
         <v>34</v>
       </c>
-      <c r="G6" t="s"/>
-      <c r="H6" t="s"/>
+      <c r="G6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" t="s">
+        <v>36</v>
+      </c>
       <c r="I6" t="s"/>
       <c r="J6" t="s"/>
       <c r="K6" t="s"/>
@@ -1089,8 +1101,12 @@
       <c r="F8" t="s">
         <v>34</v>
       </c>
-      <c r="G8" t="s"/>
-      <c r="H8" t="s"/>
+      <c r="G8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" t="s">
+        <v>36</v>
+      </c>
       <c r="I8" t="s"/>
       <c r="J8" t="s"/>
       <c r="K8" t="s"/>
@@ -1223,8 +1239,12 @@
       <c r="F10" t="s">
         <v>34</v>
       </c>
-      <c r="G10" t="s"/>
-      <c r="H10" t="s"/>
+      <c r="G10" t="s">
+        <v>52</v>
+      </c>
+      <c r="H10" t="s">
+        <v>36</v>
+      </c>
       <c r="I10" t="s"/>
       <c r="J10" t="s"/>
       <c r="K10" t="s"/>
@@ -1267,8 +1287,12 @@
       <c r="F11" t="s">
         <v>34</v>
       </c>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s"/>
+      <c r="G11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H11" t="s">
+        <v>36</v>
+      </c>
       <c r="I11" t="s"/>
       <c r="J11" t="s"/>
       <c r="K11" t="s"/>
